--- a/LORAProtocol/LORA_PROTOCOL.xlsx
+++ b/LORAProtocol/LORA_PROTOCOL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Buoy-ESP32-Firmware\LORAProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EA5FC9-CCF2-4463-99C6-6525604D55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919755B-2665-49A9-B8CB-7F07BF7E7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{2544192D-57DB-4BF2-AC79-26524CA90FDA}"/>
   </bookViews>
@@ -161,11 +161,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +484,7 @@
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,42 +493,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -685,24 +685,24 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -715,78 +715,78 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -859,24 +859,24 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -969,42 +969,42 @@
       <c r="AG11" s="3"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="R12" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1055,22 +1055,22 @@
       <c r="P13" s="1">
         <v>15</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1095,80 +1095,80 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="R16" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="R16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1219,22 +1219,22 @@
       <c r="P17" s="1">
         <v>15</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1279,24 +1279,24 @@
       <c r="AG18" s="3"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="R21" s="1">
@@ -1371,91 +1371,84 @@
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="R23:AG26"/>
-    <mergeCell ref="R18:AG18"/>
-    <mergeCell ref="R9:AG9"/>
-    <mergeCell ref="R20:AG20"/>
-    <mergeCell ref="R12:AG13"/>
-    <mergeCell ref="R14:AG15"/>
-    <mergeCell ref="R16:AG17"/>
-    <mergeCell ref="R11:AG11"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="I18:P18"/>
@@ -1472,9 +1465,16 @@
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="R23:AG26"/>
+    <mergeCell ref="R18:AG18"/>
+    <mergeCell ref="R9:AG9"/>
+    <mergeCell ref="R20:AG20"/>
+    <mergeCell ref="R12:AG13"/>
+    <mergeCell ref="R14:AG15"/>
+    <mergeCell ref="R16:AG17"/>
+    <mergeCell ref="R11:AG11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LORAProtocol/LORA_PROTOCOL.xlsx
+++ b/LORAProtocol/LORA_PROTOCOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Buoy-ESP32-Firmware\LORAProtocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919755B-2665-49A9-B8CB-7F07BF7E7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5FCDDD-9E58-459C-ABEB-DDE80D8B5C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{2544192D-57DB-4BF2-AC79-26524CA90FDA}"/>
   </bookViews>
@@ -158,14 +158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,42 +493,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -629,164 +629,164 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="R4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -839,66 +839,66 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="R9" s="5" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="R9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="R10" s="1">
         <v>0</v>
       </c>
@@ -949,62 +949,62 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="R12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1055,120 +1055,120 @@
       <c r="P13" s="1">
         <v>15</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="4" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="R14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="R16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1219,84 +1219,84 @@
       <c r="P17" s="1">
         <v>15</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="R18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="R21" s="1">
@@ -1349,122 +1349,103 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="R4:AG5"/>
-    <mergeCell ref="R6:AG7"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:P1"/>
     <mergeCell ref="R22:Y22"/>
     <mergeCell ref="Z22:AG22"/>
     <mergeCell ref="R23:AG26"/>
@@ -1475,6 +1456,25 @@
     <mergeCell ref="R14:AG15"/>
     <mergeCell ref="R16:AG17"/>
     <mergeCell ref="R11:AG11"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="R4:AG5"/>
+    <mergeCell ref="R6:AG7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
